--- a/main/banco_de_dados/banco.xlsx
+++ b/main/banco_de_dados/banco.xlsx
@@ -467,13 +467,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="10.5546875" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
     <col width="9.33203125" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
@@ -528,6 +528,36 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>copo</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>135</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>garfo</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/main/banco_de_dados/banco.xlsx
+++ b/main/banco_de_dados/banco.xlsx
@@ -467,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
@@ -558,6 +558,36 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>copo</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>30</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>mouse</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>270</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/main/banco_de_dados/banco.xlsx
+++ b/main/banco_de_dados/banco.xlsx
@@ -467,13 +467,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="10.5546875" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
     <col width="9.33203125" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
@@ -588,6 +588,66 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>uva</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>30</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>lata</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1021.815</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/main/banco_de_dados/banco.xlsx
+++ b/main/banco_de_dados/banco.xlsx
@@ -473,7 +473,7 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="10.5546875" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
     <col width="9.33203125" bestFit="1" customWidth="1" style="5" min="2" max="2"/>

--- a/main/banco_de_dados/banco.xlsx
+++ b/main/banco_de_dados/banco.xlsx
@@ -1,51 +1,102 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b284ebdf422ad50/Documentos/GitHub/Software_Vendas/main/banco_de_dados/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_0C394EFB5FF4DEEF979D4D399234991667D972D8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECDAD8EB-025C-4DBD-890F-2B8EFF9D8EF2}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12504" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12504" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="banco_de_dados" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="banco_de_dados" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+  <si>
+    <t>Produto</t>
+  </si>
+  <si>
+    <t>Preço</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>manga roxa</t>
+  </si>
+  <si>
+    <t>10/03/2025</t>
+  </si>
+  <si>
+    <t>leite azedo</t>
+  </si>
+  <si>
+    <t>copo</t>
+  </si>
+  <si>
+    <t>garfo</t>
+  </si>
+  <si>
+    <t>mouse</t>
+  </si>
+  <si>
+    <t>uva</t>
+  </si>
+  <si>
+    <t>11/03/2025</t>
+  </si>
+  <si>
+    <t>lata</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -91,94 +142,42 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -444,208 +443,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="10.5546875" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
-    <col width="10.5546875" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
-    <col width="8.88671875" customWidth="1" style="4" min="4" max="4"/>
+    <col min="1" max="1" width="21" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Produto</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Preço</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>manga roxa</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6">
         <v>135</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>10/03/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>leite azedo</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6">
         <v>180</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>10/03/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>copo</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6">
         <v>135</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>10/03/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>garfo</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6">
         <v>10</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10/03/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>copo</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6">
         <v>30</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>10/03/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>mouse</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6">
         <v>270</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>10/03/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>uva</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="6">
         <v>30</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>11/03/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>lata</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1021.815</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>11/03/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1021.8150000000001</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="6">
         <v>1</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>11/03/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="6">
         <v>2</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>11/03/2025</t>
-        </is>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/main/banco_de_dados/banco.xlsx
+++ b/main/banco_de_dados/banco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b284ebdf422ad50/Documentos/GitHub/Software_Vendas/main/banco_de_dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_0C394EFB5FF4DEEF979D4D399234991667D972D8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECDAD8EB-025C-4DBD-890F-2B8EFF9D8EF2}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_0965ACF45FF4DEEF979D4D3402767D5E455FE625" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B01511A-027B-41AD-B6A1-53F865A766D2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12504" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t>Produto</t>
   </si>
@@ -60,6 +60,18 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>jacaré</t>
+  </si>
+  <si>
+    <t>juliete</t>
+  </si>
+  <si>
+    <t>frasco</t>
+  </si>
+  <si>
+    <t>12/03/2025</t>
   </si>
 </sst>
 </file>
@@ -108,7 +120,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -140,28 +152,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -444,37 +489,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -482,113 +535,179 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>135</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>180</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>135</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="5">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>30</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>270</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>30</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>1021.8150000000001</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>1</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>2</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>10</v>
+      <c r="C11" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="5">
+        <v>270</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5">
+        <v>30</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="5">
+        <v>900</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5">
+        <v>270</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="5">
+        <v>30</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/main/banco_de_dados/banco.xlsx
+++ b/main/banco_de_dados/banco.xlsx
@@ -1,126 +1,118 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b284ebdf422ad50/Documentos/GitHub/Software_Vendas/main/banco_de_dados/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_0965ACF45FF4DEEF979D4D3402767D5E455FE625" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B01511A-027B-41AD-B6A1-53F865A766D2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12504" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12504" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="banco_de_dados" sheetId="2" r:id="rId2"/>
+    <sheet name="banco_de_dados" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
-  <si>
-    <t>Produto</t>
-  </si>
-  <si>
-    <t>Preço</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>manga roxa</t>
-  </si>
-  <si>
-    <t>10/03/2025</t>
-  </si>
-  <si>
-    <t>leite azedo</t>
-  </si>
-  <si>
-    <t>copo</t>
-  </si>
-  <si>
-    <t>garfo</t>
-  </si>
-  <si>
-    <t>mouse</t>
-  </si>
-  <si>
-    <t>uva</t>
-  </si>
-  <si>
-    <t>11/03/2025</t>
-  </si>
-  <si>
-    <t>lata</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>jacaré</t>
-  </si>
-  <si>
-    <t>juliete</t>
-  </si>
-  <si>
-    <t>frasco</t>
-  </si>
-  <si>
-    <t>12/03/2025</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF00B0F0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF92D050"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -130,99 +122,223 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -488,229 +604,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="21" style="6" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="2" customWidth="1"/>
+    <col width="26.109375" customWidth="1" style="7" min="1" max="1"/>
+    <col width="21.6640625" customWidth="1" style="14" min="2" max="2"/>
+    <col width="22" customWidth="1" style="9" min="3" max="3"/>
+    <col width="8.88671875" customWidth="1" style="13" min="4" max="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+    <row r="1" ht="15.6" customHeight="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>Produto</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>Preço</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="5">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>manga roxa</t>
+        </is>
+      </c>
+      <c r="B2" s="15" t="n">
         <v>135</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>4</v>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5">
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>leite azedo</t>
+        </is>
+      </c>
+      <c r="B3" s="16" t="n">
         <v>180</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>4</v>
+      <c r="C3" s="12" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5">
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>copo</t>
+        </is>
+      </c>
+      <c r="B4" s="16" t="n">
         <v>135</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>4</v>
+      <c r="C4" s="12" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="5">
-        <v>10</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>4</v>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>uva</t>
+        </is>
+      </c>
+      <c r="B5" s="16" t="n">
+        <v>30</v>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
+        <is>
+          <t>12/03/2025</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="5">
-        <v>30</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5">
-        <v>270</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="5">
-        <v>30</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1021.8150000000001</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="5">
-        <v>2</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="5">
-        <v>270</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="5">
-        <v>30</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="5">
-        <v>900</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5">
-        <v>270</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="5">
-        <v>30</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>16</v>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>leite</t>
+        </is>
+      </c>
+      <c r="B6" s="16" t="n">
+        <v>108</v>
+      </c>
+      <c r="C6" s="12" t="inlineStr">
+        <is>
+          <t>12/03/2025</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/main/banco_de_dados/banco.xlsx
+++ b/main/banco_de_dados/banco.xlsx
@@ -3,10 +3,11 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12504" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12504" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="banco_de_dados" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="contas_de_usuario" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="banco_de_dados" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -112,7 +113,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -224,12 +225,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -262,6 +278,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="4" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="5" pivotButton="0" quotePrefix="0" xfId="1"/>
@@ -609,16 +631,51 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col width="42" customWidth="1" min="1" max="1"/>
+    <col width="29.44140625" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.6" customHeight="1">
+      <c r="A1" s="14" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="B1" s="15" t="inlineStr">
+        <is>
+          <t>Senha</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="26.109375" customWidth="1" style="7" min="1" max="1"/>
-    <col width="21.6640625" customWidth="1" style="14" min="2" max="2"/>
+    <col width="21.6640625" customWidth="1" style="16" min="2" max="2"/>
     <col width="22" customWidth="1" style="9" min="3" max="3"/>
     <col width="8.88671875" customWidth="1" style="13" min="4" max="19"/>
   </cols>
@@ -646,7 +703,7 @@
           <t>manga roxa</t>
         </is>
       </c>
-      <c r="B2" s="15" t="n">
+      <c r="B2" s="17" t="n">
         <v>135</v>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -661,7 +718,7 @@
           <t>leite azedo</t>
         </is>
       </c>
-      <c r="B3" s="16" t="n">
+      <c r="B3" s="18" t="n">
         <v>180</v>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -676,7 +733,7 @@
           <t>copo</t>
         </is>
       </c>
-      <c r="B4" s="16" t="n">
+      <c r="B4" s="18" t="n">
         <v>135</v>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -691,7 +748,7 @@
           <t>uva</t>
         </is>
       </c>
-      <c r="B5" s="16" t="n">
+      <c r="B5" s="18" t="n">
         <v>30</v>
       </c>
       <c r="C5" s="12" t="inlineStr">
@@ -706,10 +763,40 @@
           <t>leite</t>
         </is>
       </c>
-      <c r="B6" s="16" t="n">
+      <c r="B6" s="18" t="n">
         <v>108</v>
       </c>
       <c r="C6" s="12" t="inlineStr">
+        <is>
+          <t>12/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>uva</t>
+        </is>
+      </c>
+      <c r="B7" s="18" t="n">
+        <v>40</v>
+      </c>
+      <c r="C7" s="12" t="inlineStr">
+        <is>
+          <t>12/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>diamante</t>
+        </is>
+      </c>
+      <c r="B8" s="18" t="n">
+        <v>2700</v>
+      </c>
+      <c r="C8" s="12" t="inlineStr">
         <is>
           <t>12/03/2025</t>
         </is>

--- a/main/banco_de_dados/banco.xlsx
+++ b/main/banco_de_dados/banco.xlsx
@@ -666,7 +666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
@@ -802,6 +802,66 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>manga roxa</t>
+        </is>
+      </c>
+      <c r="B9" s="18" t="n">
+        <v>270</v>
+      </c>
+      <c r="C9" s="12" t="inlineStr">
+        <is>
+          <t>12/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>copo</t>
+        </is>
+      </c>
+      <c r="B10" s="18" t="n">
+        <v>40</v>
+      </c>
+      <c r="C10" s="12" t="inlineStr">
+        <is>
+          <t>12/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>jaca</t>
+        </is>
+      </c>
+      <c r="B11" s="18" t="n">
+        <v>121.815</v>
+      </c>
+      <c r="C11" s="12" t="inlineStr">
+        <is>
+          <t>13/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B12" s="18" t="n">
+        <v>2835.45</v>
+      </c>
+      <c r="C12" s="12" t="inlineStr">
+        <is>
+          <t>13/03/2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/main/banco_de_dados/banco.xlsx
+++ b/main/banco_de_dados/banco.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12504" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12504" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="contas_de_usuario" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -71,6 +71,35 @@
       <family val="2"/>
       <b val="1"/>
       <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF92D050"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF00B0F0"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF00B0F0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -227,25 +256,22 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="2"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="2"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -278,19 +304,23 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="9" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="49" fontId="10" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="4" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="5" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
+    <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -631,32 +661,58 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.6"/>
   <cols>
-    <col width="42" customWidth="1" min="1" max="1"/>
-    <col width="29.44140625" customWidth="1" min="2" max="2"/>
+    <col width="43.5546875" customWidth="1" style="17" min="1" max="1"/>
+    <col width="41" customWidth="1" style="15" min="2" max="2"/>
+    <col width="8.88671875" customWidth="1" style="13" min="3" max="16"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.6" customHeight="1">
-      <c r="A1" s="14" t="inlineStr">
+      <c r="A1" s="18" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="B1" s="15" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Senha</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="16" t="inlineStr">
+        <is>
+          <t>aaa@aaa.com</t>
+        </is>
+      </c>
+      <c r="B2" s="14" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="16" t="inlineStr">
+        <is>
+          <t>devlgsouza@gmail.com</t>
+        </is>
+      </c>
+      <c r="B3" s="14" t="inlineStr">
+        <is>
+          <t>123</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -668,14 +724,14 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="26.109375" customWidth="1" style="7" min="1" max="1"/>
-    <col width="21.6640625" customWidth="1" style="16" min="2" max="2"/>
+    <col width="21.6640625" customWidth="1" style="19" min="2" max="2"/>
     <col width="22" customWidth="1" style="9" min="3" max="3"/>
     <col width="8.88671875" customWidth="1" style="13" min="4" max="19"/>
   </cols>
@@ -703,7 +759,7 @@
           <t>manga roxa</t>
         </is>
       </c>
-      <c r="B2" s="17" t="n">
+      <c r="B2" s="20" t="n">
         <v>135</v>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -718,7 +774,7 @@
           <t>leite azedo</t>
         </is>
       </c>
-      <c r="B3" s="18" t="n">
+      <c r="B3" s="21" t="n">
         <v>180</v>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -733,7 +789,7 @@
           <t>copo</t>
         </is>
       </c>
-      <c r="B4" s="18" t="n">
+      <c r="B4" s="21" t="n">
         <v>135</v>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -748,7 +804,7 @@
           <t>uva</t>
         </is>
       </c>
-      <c r="B5" s="18" t="n">
+      <c r="B5" s="21" t="n">
         <v>30</v>
       </c>
       <c r="C5" s="12" t="inlineStr">
@@ -763,7 +819,7 @@
           <t>leite</t>
         </is>
       </c>
-      <c r="B6" s="18" t="n">
+      <c r="B6" s="21" t="n">
         <v>108</v>
       </c>
       <c r="C6" s="12" t="inlineStr">
@@ -778,7 +834,7 @@
           <t>uva</t>
         </is>
       </c>
-      <c r="B7" s="18" t="n">
+      <c r="B7" s="21" t="n">
         <v>40</v>
       </c>
       <c r="C7" s="12" t="inlineStr">
@@ -793,7 +849,7 @@
           <t>diamante</t>
         </is>
       </c>
-      <c r="B8" s="18" t="n">
+      <c r="B8" s="21" t="n">
         <v>2700</v>
       </c>
       <c r="C8" s="12" t="inlineStr">
@@ -808,7 +864,7 @@
           <t>manga roxa</t>
         </is>
       </c>
-      <c r="B9" s="18" t="n">
+      <c r="B9" s="21" t="n">
         <v>270</v>
       </c>
       <c r="C9" s="12" t="inlineStr">
@@ -823,7 +879,7 @@
           <t>copo</t>
         </is>
       </c>
-      <c r="B10" s="18" t="n">
+      <c r="B10" s="21" t="n">
         <v>40</v>
       </c>
       <c r="C10" s="12" t="inlineStr">
@@ -838,7 +894,7 @@
           <t>jaca</t>
         </is>
       </c>
-      <c r="B11" s="18" t="n">
+      <c r="B11" s="21" t="n">
         <v>121.815</v>
       </c>
       <c r="C11" s="12" t="inlineStr">
@@ -853,7 +909,7 @@
           <t>a</t>
         </is>
       </c>
-      <c r="B12" s="18" t="n">
+      <c r="B12" s="21" t="n">
         <v>2835.45</v>
       </c>
       <c r="C12" s="12" t="inlineStr">

--- a/main/banco_de_dados/banco.xlsx
+++ b/main/banco_de_dados/banco.xlsx
@@ -1,112 +1,186 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b284ebdf422ad50/Documentos/GitHub/Software_Vendas/main/banco_de_dados/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_983D51EE022476E0EC10CDB63B5092978AB4A6EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3037D761-451B-4F40-BDAE-F86BEFCA8A7C}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12504" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12504" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="contas_de_usuario" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="banco_de_dados" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="contas_de_usuario" sheetId="1" r:id="rId1"/>
+    <sheet name="banco_de_vendas" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Senha</t>
+  </si>
+  <si>
+    <t>aaa@aaa.com</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>devlgsouza@gmail.com</t>
+  </si>
+  <si>
+    <t>luisguisouza1004@gmail.com</t>
+  </si>
+  <si>
+    <t>Produto</t>
+  </si>
+  <si>
+    <t>Preço</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>manga roxa</t>
+  </si>
+  <si>
+    <t>10/03/2025</t>
+  </si>
+  <si>
+    <t>leite azedo</t>
+  </si>
+  <si>
+    <t>copo</t>
+  </si>
+  <si>
+    <t>uva</t>
+  </si>
+  <si>
+    <t>12/03/2025</t>
+  </si>
+  <si>
+    <t>leite</t>
+  </si>
+  <si>
+    <t>diamante</t>
+  </si>
+  <si>
+    <t>jaca</t>
+  </si>
+  <si>
+    <t>13/03/2025</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>manga rosa</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="11">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+  <fonts count="11" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
       <color rgb="FF00B0F0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color rgb="FF92D050"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FF92D050"/>
-      <sz val="12"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FF00B0F0"/>
-      <sz val="12"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FF00B0F0"/>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -267,130 +341,68 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="44" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="14" fontId="3" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="44" fontId="3" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="9" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="49" fontId="10" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
-    <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -656,270 +668,230 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="43.5546875" customWidth="1" style="17" min="1" max="1"/>
-    <col width="41" customWidth="1" style="15" min="2" max="2"/>
-    <col width="8.88671875" customWidth="1" style="13" min="3" max="16"/>
+    <col min="1" max="1" width="43.5546875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="41" style="15" customWidth="1"/>
+    <col min="3" max="16" width="8.88671875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" customHeight="1">
-      <c r="A1" s="18" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="inlineStr">
-        <is>
-          <t>Senha</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="16" t="inlineStr">
-        <is>
-          <t>aaa@aaa.com</t>
-        </is>
-      </c>
-      <c r="B2" s="14" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="16" t="inlineStr">
-        <is>
-          <t>devlgsouza@gmail.com</t>
-        </is>
-      </c>
-      <c r="B3" s="14" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
+    <row r="1" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="26.109375" customWidth="1" style="7" min="1" max="1"/>
-    <col width="21.6640625" customWidth="1" style="19" min="2" max="2"/>
-    <col width="22" customWidth="1" style="9" min="3" max="3"/>
-    <col width="8.88671875" customWidth="1" style="13" min="4" max="19"/>
+    <col min="1" max="1" width="26.109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="22" style="9" customWidth="1"/>
+    <col min="4" max="19" width="8.88671875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" customHeight="1">
-      <c r="A1" s="6" t="inlineStr">
-        <is>
-          <t>Produto</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="inlineStr">
-        <is>
-          <t>Preço</t>
-        </is>
-      </c>
-      <c r="C1" s="10" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>manga roxa</t>
-        </is>
-      </c>
-      <c r="B2" s="20" t="n">
+    <row r="1" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3">
         <v>135</v>
       </c>
-      <c r="C2" s="11" t="inlineStr">
-        <is>
-          <t>10/03/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>leite azedo</t>
-        </is>
-      </c>
-      <c r="B3" s="21" t="n">
+      <c r="C2" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4">
         <v>180</v>
       </c>
-      <c r="C3" s="12" t="inlineStr">
-        <is>
-          <t>10/03/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>copo</t>
-        </is>
-      </c>
-      <c r="B4" s="21" t="n">
+      <c r="C3" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4">
         <v>135</v>
       </c>
-      <c r="C4" s="12" t="inlineStr">
-        <is>
-          <t>10/03/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>uva</t>
-        </is>
-      </c>
-      <c r="B5" s="21" t="n">
+      <c r="C4" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4">
         <v>30</v>
       </c>
-      <c r="C5" s="12" t="inlineStr">
-        <is>
-          <t>12/03/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>leite</t>
-        </is>
-      </c>
-      <c r="B6" s="21" t="n">
+      <c r="C5" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4">
         <v>108</v>
       </c>
-      <c r="C6" s="12" t="inlineStr">
-        <is>
-          <t>12/03/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>uva</t>
-        </is>
-      </c>
-      <c r="B7" s="21" t="n">
+      <c r="C6" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4">
         <v>40</v>
       </c>
-      <c r="C7" s="12" t="inlineStr">
-        <is>
-          <t>12/03/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>diamante</t>
-        </is>
-      </c>
-      <c r="B8" s="21" t="n">
+      <c r="C7" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4">
         <v>2700</v>
       </c>
-      <c r="C8" s="12" t="inlineStr">
-        <is>
-          <t>12/03/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>manga roxa</t>
-        </is>
-      </c>
-      <c r="B9" s="21" t="n">
+      <c r="C8" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4">
         <v>270</v>
       </c>
-      <c r="C9" s="12" t="inlineStr">
-        <is>
-          <t>12/03/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>copo</t>
-        </is>
-      </c>
-      <c r="B10" s="21" t="n">
+      <c r="C9" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4">
         <v>40</v>
       </c>
-      <c r="C10" s="12" t="inlineStr">
-        <is>
-          <t>12/03/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>jaca</t>
-        </is>
-      </c>
-      <c r="B11" s="21" t="n">
+      <c r="C10" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4">
         <v>121.815</v>
       </c>
-      <c r="C11" s="12" t="inlineStr">
-        <is>
-          <t>13/03/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="B12" s="21" t="n">
+      <c r="C11" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4">
         <v>2835.45</v>
       </c>
-      <c r="C12" s="12" t="inlineStr">
-        <is>
-          <t>13/03/2025</t>
-        </is>
+      <c r="C12" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2835.45</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>30</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/main/banco_de_dados/banco.xlsx
+++ b/main/banco_de_dados/banco.xlsx
@@ -1,186 +1,120 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b284ebdf422ad50/Documentos/GitHub/Software_Vendas/main/banco_de_dados/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_983D51EE022476E0EC10CDB63B5092978AB4A6EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3037D761-451B-4F40-BDAE-F86BEFCA8A7C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12504" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12504" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="contas_de_usuario" sheetId="1" r:id="rId1"/>
-    <sheet name="banco_de_vendas" sheetId="2" r:id="rId2"/>
+    <sheet name="contas_de_usuario" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="banco_de_vendas" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Senha</t>
-  </si>
-  <si>
-    <t>aaa@aaa.com</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>devlgsouza@gmail.com</t>
-  </si>
-  <si>
-    <t>luisguisouza1004@gmail.com</t>
-  </si>
-  <si>
-    <t>Produto</t>
-  </si>
-  <si>
-    <t>Preço</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>manga roxa</t>
-  </si>
-  <si>
-    <t>10/03/2025</t>
-  </si>
-  <si>
-    <t>leite azedo</t>
-  </si>
-  <si>
-    <t>copo</t>
-  </si>
-  <si>
-    <t>uva</t>
-  </si>
-  <si>
-    <t>12/03/2025</t>
-  </si>
-  <si>
-    <t>leite</t>
-  </si>
-  <si>
-    <t>diamante</t>
-  </si>
-  <si>
-    <t>jaca</t>
-  </si>
-  <si>
-    <t>13/03/2025</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>manga rosa</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF00B0F0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF92D050"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF92D050"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF92D050"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF92D050"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF00B0F0"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF00B0F0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -215,8 +149,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -328,81 +268,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="2"/>
-      </left>
-      <right style="thin">
-        <color theme="2"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="28">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="49" fontId="10" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="3" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -668,230 +675,438 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A1" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.6" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="41" style="15" customWidth="1"/>
-    <col min="3" max="16" width="8.88671875" style="13" customWidth="1"/>
+    <col width="14.33203125" customWidth="1" style="24" min="1" max="1"/>
+    <col width="43.5546875" customWidth="1" style="17" min="2" max="2"/>
+    <col width="41" customWidth="1" style="19" min="3" max="3"/>
+    <col width="8.88671875" customWidth="1" style="13" min="4" max="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" ht="15.6" customHeight="1">
+      <c r="A1" s="15" t="inlineStr">
+        <is>
+          <t>ID_LOGIN</t>
+        </is>
+      </c>
+      <c r="B1" s="14" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>Senha</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="22" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="B2" s="20" t="inlineStr">
+        <is>
+          <t>aaa@aaa.com</t>
+        </is>
+      </c>
+      <c r="C2" s="21" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B3" s="16" t="inlineStr">
+        <is>
+          <t>devlgsouza@gmail.com</t>
+        </is>
+      </c>
+      <c r="C3" s="18" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="23" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="B4" s="16" t="inlineStr">
+        <is>
+          <t>luisguisouza1004@gmail.com</t>
+        </is>
+      </c>
+      <c r="C4" s="18" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="B5" s="20" t="inlineStr">
+        <is>
+          <t>teste@teste.com</t>
+        </is>
+      </c>
+      <c r="C5" s="21" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>3</v>
+      <c r="B6" s="20" t="inlineStr">
+        <is>
+          <t>luis@souza.com</t>
+        </is>
+      </c>
+      <c r="C6" s="21" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.6" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="26.109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="22" style="9" customWidth="1"/>
-    <col min="4" max="19" width="8.88671875" style="13" customWidth="1"/>
+    <col width="14.33203125" customWidth="1" style="24" min="1" max="1"/>
+    <col width="26.109375" customWidth="1" style="7" min="2" max="2"/>
+    <col width="21.6640625" customWidth="1" style="25" min="3" max="3"/>
+    <col width="22" customWidth="1" style="9" min="4" max="4"/>
+    <col width="8.88671875" customWidth="1" style="13" min="5" max="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" ht="15.6" customHeight="1">
+      <c r="A1" s="15" t="inlineStr">
+        <is>
+          <t>ID_VENDA</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Produto</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>Preço</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>manga roxa</t>
+        </is>
+      </c>
+      <c r="C2" s="26" t="n">
+        <v>135</v>
+      </c>
+      <c r="D2" s="11" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>leite azedo</t>
+        </is>
+      </c>
+      <c r="C3" s="27" t="n">
+        <v>180</v>
+      </c>
+      <c r="D3" s="12" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>copo</t>
+        </is>
+      </c>
+      <c r="C4" s="27" t="n">
+        <v>135</v>
+      </c>
+      <c r="D4" s="12" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>uva</t>
+        </is>
+      </c>
+      <c r="C5" s="27" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" s="12" t="inlineStr">
+        <is>
+          <t>12/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>leite</t>
+        </is>
+      </c>
+      <c r="C6" s="27" t="n">
+        <v>108</v>
+      </c>
+      <c r="D6" s="12" t="inlineStr">
+        <is>
+          <t>12/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>uva</t>
+        </is>
+      </c>
+      <c r="C7" s="27" t="n">
+        <v>40</v>
+      </c>
+      <c r="D7" s="12" t="inlineStr">
+        <is>
+          <t>12/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="23" t="n">
         <v>7</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>diamante</t>
+        </is>
+      </c>
+      <c r="C8" s="27" t="n">
+        <v>2700</v>
+      </c>
+      <c r="D8" s="12" t="inlineStr">
+        <is>
+          <t>12/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="23" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>manga roxa</t>
+        </is>
+      </c>
+      <c r="C9" s="27" t="n">
+        <v>270</v>
+      </c>
+      <c r="D9" s="12" t="inlineStr">
+        <is>
+          <t>12/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="22" t="n">
         <v>9</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>copo</t>
+        </is>
+      </c>
+      <c r="C10" s="27" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" s="12" t="inlineStr">
+        <is>
+          <t>12/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="22" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>jaca</t>
+        </is>
+      </c>
+      <c r="C11" s="27" t="n">
+        <v>121.815</v>
+      </c>
+      <c r="D11" s="12" t="inlineStr">
+        <is>
+          <t>13/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="22" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C12" s="27" t="n">
+        <v>2835.45</v>
+      </c>
+      <c r="D12" s="12" t="inlineStr">
+        <is>
+          <t>13/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="23" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>manga rosa</t>
+        </is>
+      </c>
+      <c r="C13" s="27" t="n">
+        <v>2835.45</v>
+      </c>
+      <c r="D13" s="12" t="inlineStr">
+        <is>
+          <t>13/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="23" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>uva</t>
+        </is>
+      </c>
+      <c r="C14" s="27" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="12" t="inlineStr">
+        <is>
+          <t>13/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="23" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>jaca</t>
+        </is>
+      </c>
+      <c r="C15" s="27" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" s="12" t="inlineStr">
+        <is>
+          <t>15/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="23" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>leite</t>
+        </is>
+      </c>
+      <c r="C16" s="27" t="n">
         <v>135</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4">
-        <v>180</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4">
-        <v>135</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="4">
-        <v>30</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="4">
-        <v>108</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4">
-        <v>40</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="4">
-        <v>2700</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="4">
-        <v>270</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4">
-        <v>40</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="4">
-        <v>121.815</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="4">
-        <v>2835.45</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="4">
-        <v>2835.45</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4">
-        <v>30</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>18</v>
+      <c r="D16" s="12" t="inlineStr">
+        <is>
+          <t>15/03/2025</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/main/banco_de_dados/banco.xlsx
+++ b/main/banco_de_dados/banco.xlsx
@@ -274,7 +274,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -313,16 +313,25 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="3" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="49" fontId="10" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="3" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -680,17 +689,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A1048576"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.6" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.6"/>
   <cols>
-    <col width="14.33203125" customWidth="1" style="24" min="1" max="1"/>
-    <col width="43.5546875" customWidth="1" style="17" min="2" max="2"/>
-    <col width="41" customWidth="1" style="19" min="3" max="3"/>
+    <col width="14.33203125" customWidth="1" style="27" min="1" max="1"/>
+    <col width="43.5546875" customWidth="1" style="21" min="2" max="2"/>
+    <col width="41" customWidth="1" style="24" min="3" max="3"/>
     <col width="8.88671875" customWidth="1" style="13" min="4" max="16"/>
   </cols>
   <sheetData>
@@ -712,77 +721,122 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="22" t="n">
+      <c r="A2" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="inlineStr">
+      <c r="B2" s="19" t="inlineStr">
         <is>
           <t>aaa@aaa.com</t>
         </is>
       </c>
-      <c r="C2" s="21" t="inlineStr">
+      <c r="C2" s="22" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="23" t="n">
+      <c r="A3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="inlineStr">
+      <c r="B3" s="20" t="inlineStr">
         <is>
           <t>devlgsouza@gmail.com</t>
         </is>
       </c>
-      <c r="C3" s="18" t="inlineStr">
+      <c r="C3" s="23" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="23" t="n">
+      <c r="A4" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="inlineStr">
+      <c r="B4" s="20" t="inlineStr">
         <is>
           <t>luisguisouza1004@gmail.com</t>
         </is>
       </c>
-      <c r="C4" s="18" t="inlineStr">
+      <c r="C4" s="23" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="22" t="n">
+      <c r="A5" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="20" t="inlineStr">
+      <c r="B5" s="19" t="inlineStr">
         <is>
           <t>teste@teste.com</t>
         </is>
       </c>
-      <c r="C5" s="21" t="inlineStr">
+      <c r="C5" s="22" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="22" t="n">
+      <c r="A6" s="25" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="20" t="inlineStr">
+      <c r="B6" s="19" t="inlineStr">
         <is>
           <t>luis@souza.com</t>
         </is>
       </c>
-      <c r="C6" s="21" t="inlineStr">
+      <c r="C6" s="22" t="inlineStr">
         <is>
           <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="25" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C7" s="22" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="C8" s="22" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="C9" s="22" t="inlineStr">
+        <is>
+          <t>p</t>
         </is>
       </c>
     </row>
@@ -798,17 +852,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.6" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.6"/>
   <cols>
-    <col width="14.33203125" customWidth="1" style="24" min="1" max="1"/>
+    <col width="14.33203125" customWidth="1" style="27" min="1" max="1"/>
     <col width="26.109375" customWidth="1" style="7" min="2" max="2"/>
-    <col width="21.6640625" customWidth="1" style="25" min="3" max="3"/>
+    <col width="21.6640625" customWidth="1" style="28" min="3" max="3"/>
     <col width="22" customWidth="1" style="9" min="4" max="4"/>
     <col width="8.88671875" customWidth="1" style="13" min="5" max="19"/>
   </cols>
@@ -836,7 +890,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="22" t="n">
+      <c r="A2" s="25" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -844,7 +898,7 @@
           <t>manga roxa</t>
         </is>
       </c>
-      <c r="C2" s="26" t="n">
+      <c r="C2" s="29" t="n">
         <v>135</v>
       </c>
       <c r="D2" s="11" t="inlineStr">
@@ -854,7 +908,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="23" t="n">
+      <c r="A3" s="26" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -862,7 +916,7 @@
           <t>leite azedo</t>
         </is>
       </c>
-      <c r="C3" s="27" t="n">
+      <c r="C3" s="30" t="n">
         <v>180</v>
       </c>
       <c r="D3" s="12" t="inlineStr">
@@ -872,7 +926,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="23" t="n">
+      <c r="A4" s="26" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -880,7 +934,7 @@
           <t>copo</t>
         </is>
       </c>
-      <c r="C4" s="27" t="n">
+      <c r="C4" s="30" t="n">
         <v>135</v>
       </c>
       <c r="D4" s="12" t="inlineStr">
@@ -890,7 +944,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="22" t="n">
+      <c r="A5" s="25" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -898,7 +952,7 @@
           <t>uva</t>
         </is>
       </c>
-      <c r="C5" s="27" t="n">
+      <c r="C5" s="30" t="n">
         <v>30</v>
       </c>
       <c r="D5" s="12" t="inlineStr">
@@ -908,7 +962,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="22" t="n">
+      <c r="A6" s="25" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -916,7 +970,7 @@
           <t>leite</t>
         </is>
       </c>
-      <c r="C6" s="27" t="n">
+      <c r="C6" s="30" t="n">
         <v>108</v>
       </c>
       <c r="D6" s="12" t="inlineStr">
@@ -926,7 +980,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="22" t="n">
+      <c r="A7" s="25" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -934,7 +988,7 @@
           <t>uva</t>
         </is>
       </c>
-      <c r="C7" s="27" t="n">
+      <c r="C7" s="30" t="n">
         <v>40</v>
       </c>
       <c r="D7" s="12" t="inlineStr">
@@ -944,7 +998,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="23" t="n">
+      <c r="A8" s="26" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -952,7 +1006,7 @@
           <t>diamante</t>
         </is>
       </c>
-      <c r="C8" s="27" t="n">
+      <c r="C8" s="30" t="n">
         <v>2700</v>
       </c>
       <c r="D8" s="12" t="inlineStr">
@@ -962,7 +1016,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="23" t="n">
+      <c r="A9" s="26" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -970,7 +1024,7 @@
           <t>manga roxa</t>
         </is>
       </c>
-      <c r="C9" s="27" t="n">
+      <c r="C9" s="30" t="n">
         <v>270</v>
       </c>
       <c r="D9" s="12" t="inlineStr">
@@ -980,7 +1034,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="22" t="n">
+      <c r="A10" s="25" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -988,7 +1042,7 @@
           <t>copo</t>
         </is>
       </c>
-      <c r="C10" s="27" t="n">
+      <c r="C10" s="30" t="n">
         <v>40</v>
       </c>
       <c r="D10" s="12" t="inlineStr">
@@ -998,7 +1052,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="22" t="n">
+      <c r="A11" s="25" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -1006,7 +1060,7 @@
           <t>jaca</t>
         </is>
       </c>
-      <c r="C11" s="27" t="n">
+      <c r="C11" s="30" t="n">
         <v>121.815</v>
       </c>
       <c r="D11" s="12" t="inlineStr">
@@ -1016,7 +1070,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="22" t="n">
+      <c r="A12" s="25" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -1024,7 +1078,7 @@
           <t>a</t>
         </is>
       </c>
-      <c r="C12" s="27" t="n">
+      <c r="C12" s="30" t="n">
         <v>2835.45</v>
       </c>
       <c r="D12" s="12" t="inlineStr">
@@ -1034,7 +1088,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="23" t="n">
+      <c r="A13" s="26" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1042,7 +1096,7 @@
           <t>manga rosa</t>
         </is>
       </c>
-      <c r="C13" s="27" t="n">
+      <c r="C13" s="30" t="n">
         <v>2835.45</v>
       </c>
       <c r="D13" s="12" t="inlineStr">
@@ -1052,7 +1106,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="23" t="n">
+      <c r="A14" s="26" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1060,7 +1114,7 @@
           <t>uva</t>
         </is>
       </c>
-      <c r="C14" s="27" t="n">
+      <c r="C14" s="30" t="n">
         <v>30</v>
       </c>
       <c r="D14" s="12" t="inlineStr">
@@ -1070,25 +1124,25 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="23" t="n">
+      <c r="A15" s="26" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>jaca</t>
-        </is>
-      </c>
-      <c r="C15" s="27" t="n">
+          <t>uva</t>
+        </is>
+      </c>
+      <c r="C15" s="30" t="n">
         <v>30</v>
       </c>
       <c r="D15" s="12" t="inlineStr">
         <is>
-          <t>15/03/2025</t>
+          <t>16/03/2025</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="23" t="n">
+      <c r="A16" s="26" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -1096,12 +1150,48 @@
           <t>leite</t>
         </is>
       </c>
-      <c r="C16" s="27" t="n">
-        <v>135</v>
+      <c r="C16" s="30" t="n">
+        <v>15</v>
       </c>
       <c r="D16" s="12" t="inlineStr">
         <is>
-          <t>15/03/2025</t>
+          <t>16/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="26" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>copo</t>
+        </is>
+      </c>
+      <c r="C17" s="30" t="n">
+        <v>50</v>
+      </c>
+      <c r="D17" s="12" t="inlineStr">
+        <is>
+          <t>16/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="26" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>uva</t>
+        </is>
+      </c>
+      <c r="C18" s="30" t="n">
+        <v>20</v>
+      </c>
+      <c r="D18" s="12" t="inlineStr">
+        <is>
+          <t>16/03/2025</t>
         </is>
       </c>
     </row>

--- a/main/banco_de_dados/banco.xlsx
+++ b/main/banco_de_dados/banco.xlsx
@@ -852,7 +852,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
@@ -895,7 +895,7 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>manga roxa</t>
+          <t>vaca</t>
         </is>
       </c>
       <c r="C2" s="29" t="n">
@@ -1154,42 +1154,6 @@
         <v>15</v>
       </c>
       <c r="D16" s="12" t="inlineStr">
-        <is>
-          <t>16/03/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="26" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>copo</t>
-        </is>
-      </c>
-      <c r="C17" s="30" t="n">
-        <v>50</v>
-      </c>
-      <c r="D17" s="12" t="inlineStr">
-        <is>
-          <t>16/03/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="26" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>uva</t>
-        </is>
-      </c>
-      <c r="C18" s="30" t="n">
-        <v>20</v>
-      </c>
-      <c r="D18" s="12" t="inlineStr">
         <is>
           <t>16/03/2025</t>
         </is>

--- a/main/banco_de_dados/banco.xlsx
+++ b/main/banco_de_dados/banco.xlsx
@@ -852,7 +852,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
@@ -1159,6 +1159,42 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="26" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>colher</t>
+        </is>
+      </c>
+      <c r="C17" s="30" t="n">
+        <v>30</v>
+      </c>
+      <c r="D17" s="12" t="inlineStr">
+        <is>
+          <t>21/03/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="26" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>picanha</t>
+        </is>
+      </c>
+      <c r="C18" s="30" t="n">
+        <v>200</v>
+      </c>
+      <c r="D18" s="12" t="inlineStr">
+        <is>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/main/banco_de_dados/banco.xlsx
+++ b/main/banco_de_dados/banco.xlsx
@@ -695,7 +695,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.6" outlineLevelCol="0"/>
   <cols>
     <col width="14.33203125" customWidth="1" style="27" min="1" max="1"/>
     <col width="43.5546875" customWidth="1" style="21" min="2" max="2"/>
@@ -858,7 +858,7 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.6" outlineLevelCol="0"/>
   <cols>
     <col width="14.33203125" customWidth="1" style="27" min="1" max="1"/>
     <col width="26.109375" customWidth="1" style="7" min="2" max="2"/>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="D8" s="12" t="inlineStr">
         <is>
-          <t>12/03/2025</t>
+          <t>10/03/2025</t>
         </is>
       </c>
     </row>
@@ -1057,15 +1057,15 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>jaca</t>
+          <t>picanha</t>
         </is>
       </c>
       <c r="C11" s="30" t="n">
-        <v>121.815</v>
+        <v>200</v>
       </c>
       <c r="D11" s="12" t="inlineStr">
         <is>
-          <t>13/03/2025</t>
+          <t>20/03/2025</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="D12" s="12" t="inlineStr">
         <is>
-          <t>13/03/2025</t>
+          <t>22/03/2025</t>
         </is>
       </c>
     </row>

--- a/main/banco_de_dados/banco.xlsx
+++ b/main/banco_de_dados/banco.xlsx
@@ -852,7 +852,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
@@ -895,15 +895,15 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>vaca</t>
+          <t>copo</t>
         </is>
       </c>
       <c r="C2" s="29" t="n">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="D2" s="11" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>31/03/2025</t>
         </is>
       </c>
     </row>
@@ -1039,159 +1039,15 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>copo</t>
+          <t>uva</t>
         </is>
       </c>
       <c r="C10" s="30" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="D10" s="12" t="inlineStr">
         <is>
-          <t>12/03/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="25" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>picanha</t>
-        </is>
-      </c>
-      <c r="C11" s="30" t="n">
-        <v>200</v>
-      </c>
-      <c r="D11" s="12" t="inlineStr">
-        <is>
-          <t>20/03/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="25" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="C12" s="30" t="n">
-        <v>2835.45</v>
-      </c>
-      <c r="D12" s="12" t="inlineStr">
-        <is>
-          <t>22/03/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="26" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>manga rosa</t>
-        </is>
-      </c>
-      <c r="C13" s="30" t="n">
-        <v>2835.45</v>
-      </c>
-      <c r="D13" s="12" t="inlineStr">
-        <is>
-          <t>13/03/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="26" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>uva</t>
-        </is>
-      </c>
-      <c r="C14" s="30" t="n">
-        <v>30</v>
-      </c>
-      <c r="D14" s="12" t="inlineStr">
-        <is>
-          <t>13/03/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="26" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>uva</t>
-        </is>
-      </c>
-      <c r="C15" s="30" t="n">
-        <v>30</v>
-      </c>
-      <c r="D15" s="12" t="inlineStr">
-        <is>
-          <t>16/03/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="26" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>leite</t>
-        </is>
-      </c>
-      <c r="C16" s="30" t="n">
-        <v>15</v>
-      </c>
-      <c r="D16" s="12" t="inlineStr">
-        <is>
-          <t>16/03/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="26" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>colher</t>
-        </is>
-      </c>
-      <c r="C17" s="30" t="n">
-        <v>30</v>
-      </c>
-      <c r="D17" s="12" t="inlineStr">
-        <is>
-          <t>21/03/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="26" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>picanha</t>
-        </is>
-      </c>
-      <c r="C18" s="30" t="n">
-        <v>200</v>
-      </c>
-      <c r="D18" s="12" t="inlineStr">
-        <is>
-          <t>26/03/2025</t>
+          <t>28/03/2025</t>
         </is>
       </c>
     </row>

--- a/main/banco_de_dados/banco.xlsx
+++ b/main/banco_de_dados/banco.xlsx
@@ -689,13 +689,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.6" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.6"/>
   <cols>
     <col width="14.33203125" customWidth="1" style="27" min="1" max="1"/>
     <col width="43.5546875" customWidth="1" style="21" min="2" max="2"/>
@@ -837,6 +837,21 @@
       <c r="C9" s="22" t="inlineStr">
         <is>
           <t>p</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="25" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="C10" s="22" t="inlineStr">
+        <is>
+          <t>teste</t>
         </is>
       </c>
     </row>
@@ -858,7 +873,7 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.6" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.6"/>
   <cols>
     <col width="14.33203125" customWidth="1" style="27" min="1" max="1"/>
     <col width="26.109375" customWidth="1" style="7" min="2" max="2"/>

--- a/main/banco_de_dados/banco.xlsx
+++ b/main/banco_de_dados/banco.xlsx
@@ -689,7 +689,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
@@ -816,42 +816,12 @@
       </c>
       <c r="B8" s="19" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>teste</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>b</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="19" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="C9" s="22" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="25" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="19" t="inlineStr">
-        <is>
-          <t>teste</t>
-        </is>
-      </c>
-      <c r="C10" s="22" t="inlineStr">
-        <is>
-          <t>teste</t>
+          <t>Teste</t>
         </is>
       </c>
     </row>

--- a/main/banco_de_dados/banco.xlsx
+++ b/main/banco_de_dados/banco.xlsx
@@ -689,13 +689,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.6" outlineLevelCol="0"/>
   <cols>
     <col width="14.33203125" customWidth="1" style="27" min="1" max="1"/>
     <col width="43.5546875" customWidth="1" style="21" min="2" max="2"/>
@@ -822,6 +822,21 @@
       <c r="C8" s="22" t="inlineStr">
         <is>
           <t>Teste</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19" t="inlineStr">
+        <is>
+          <t>luis</t>
+        </is>
+      </c>
+      <c r="C9" s="22" t="inlineStr">
+        <is>
+          <t>souza</t>
         </is>
       </c>
     </row>
@@ -837,13 +852,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.6" outlineLevelCol="0"/>
   <cols>
     <col width="14.33203125" customWidth="1" style="27" min="1" max="1"/>
     <col width="26.109375" customWidth="1" style="7" min="2" max="2"/>
@@ -1036,6 +1051,42 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="26" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>prata 50cm</t>
+        </is>
+      </c>
+      <c r="C11" s="30" t="n">
+        <v>135</v>
+      </c>
+      <c r="D11" s="12" t="inlineStr">
+        <is>
+          <t>05/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="26" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>prata 60cm</t>
+        </is>
+      </c>
+      <c r="C12" s="30" t="n">
+        <v>180</v>
+      </c>
+      <c r="D12" s="12" t="inlineStr">
+        <is>
+          <t>05/04/2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
